--- a/runway-allocation - Correct/Tables.xlsx
+++ b/runway-allocation - Correct/Tables.xlsx
@@ -1,28 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\christophe vakaet\Documents\TU Delft\OO\runway-allocation - Christophe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hofma\Documents\runway-allocation\runway-allocation - Correct\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8123313-22A5-4829-B912-92CDB874F588}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8490" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Abbreviations" sheetId="14" r:id="rId1"/>
     <sheet name="RWY_DEPENDABILITY" sheetId="13" r:id="rId2"/>
     <sheet name="t_to_RWY" sheetId="6" r:id="rId3"/>
     <sheet name="flights" sheetId="11" r:id="rId4"/>
+    <sheet name="Scenario1" sheetId="15" r:id="rId5"/>
+    <sheet name="Scenario2" sheetId="16" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>R06</t>
   </si>
@@ -81,7 +84,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -917,16 +920,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -940,7 +943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>14</v>
       </c>
@@ -951,7 +954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -962,7 +965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -970,7 +973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -981,7 +984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -989,7 +992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -1003,16 +1006,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1062,7 +1065,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1112,7 +1115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1162,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1212,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1262,7 +1265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1312,7 +1315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1362,7 +1365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1412,7 +1415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1468,16 +1471,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1488,7 +1491,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1499,7 +1502,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1510,7 +1513,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1521,7 +1524,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1532,7 +1535,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1549,16 +1552,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1572,7 +1575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>220</v>
       </c>
@@ -1586,7 +1589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>180</v>
       </c>
@@ -1601,7 +1604,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>140</v>
       </c>
@@ -1616,7 +1619,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>120</v>
       </c>
@@ -1631,7 +1634,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>180</v>
       </c>
@@ -1646,7 +1649,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>200</v>
       </c>
@@ -1661,7 +1664,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>80</v>
       </c>
@@ -1676,7 +1679,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>100</v>
       </c>
@@ -1691,7 +1694,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>240</v>
       </c>
@@ -1706,7 +1709,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>80</v>
       </c>
@@ -1720,6 +1723,392 @@
         <f t="shared" si="0"/>
         <v>1320</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F58F39-E2E5-42E8-B5C3-482325DCBC50}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>220</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>180</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <f>D2+A3</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>140</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D11" si="0">D3+A4</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>120</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>180</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>620</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>200</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>820</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>80</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>100</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>240</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>80</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F5C463-8AAC-4E1B-928A-9E9BA48CE0F1}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>220</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>180</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <f>D2+A3</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>140</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D11" si="0">D3+A4</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>120</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>180</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>620</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>200</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>820</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>80</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>100</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>240</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>80</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
